--- a/Project -1 (Level-Basic)/Test Case.xlsx
+++ b/Project -1 (Level-Basic)/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d09b73bd954f8bef/Desktop/Manual-Testing-Projects/Project -1 (Level-Basic)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F9D08F-CC8F-4F03-B14C-17CF3A9CECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{79F9D08F-CC8F-4F03-B14C-17CF3A9CECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F449AB8-7072-4B8B-950A-0211972D0205}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B03DD370-D040-43A1-81B3-BADE52438C50}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
   <si>
     <t>Test Case Document For Register Page Module (nopcommerce demo)</t>
   </si>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -117,12 +108,6 @@
   </si>
   <si>
     <t>User's registration page load successfully</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>_</t>
   </si>
   <si>
     <t>TC_02</t>
@@ -695,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -724,30 +709,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -773,17 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -802,8 +756,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,48 +792,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,1192 +1115,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F89EDD8-2B6F-4DFD-85AB-5AB3F005D465}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="104.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.21875" customWidth="1"/>
-    <col min="6" max="6" width="59.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="109" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="146.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="152.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="4">
         <v>45916</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="15" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="17" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="F13" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
+      <c r="G14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
+      <c r="H14" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="F18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17" t="s">
+      <c r="F19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="F20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
+      <c r="F31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18" t="s">
+      <c r="F32" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18" t="s">
+      <c r="F33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17" t="s">
+      <c r="F34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
+      <c r="F35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17" t="s">
+      <c r="F36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17" t="s">
+      <c r="F37" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="288" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
+      <c r="F38" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="18" t="s">
+      <c r="F39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="18" t="s">
+      <c r="G39" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="H39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="18" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="B40" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="18" t="s">
+      <c r="E40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="17" t="s">
+      <c r="H41" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="18" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="B42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="18" t="s">
+      <c r="C42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="E42" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H41" s="18" t="s">
+      <c r="F42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="G42" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="H42" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="18" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="B43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="E43" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G43" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H43" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="A1:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>